--- a/ES1.xlsx
+++ b/ES1.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UniUD\Laurea Magistrale\Linguaggi e Compilatori\Progetto\Parte 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E40DFA-7800-432E-9743-620CDF18D16B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE754A1-72CC-47F5-A6C1-CE4ADD5543B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{866EE0BA-B851-4674-B5A5-24E4954F9FBE}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{866EE0BA-B851-4674-B5A5-24E4954F9FBE}"/>
+    <workbookView xWindow="14004" yWindow="2484" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{D18F0240-8419-4565-BF67-49DB3418F4F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="154">
   <si>
     <t>L</t>
   </si>
@@ -452,21 +453,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">e13: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>echo "missing , at the end of a list" insert ,</t>
-    </r>
-  </si>
-  <si>
     <t>s2</t>
   </si>
   <si>
@@ -562,9 +548,6 @@
     <t>L → NM</t>
   </si>
   <si>
-    <t>N → [O</t>
-  </si>
-  <si>
     <t>[OM$</t>
   </si>
   <si>
@@ -580,42 +563,27 @@
     <t>id..[num]++id,num]:[id id]$</t>
   </si>
   <si>
-    <t>O → EP</t>
-  </si>
-  <si>
     <t>EPM$</t>
   </si>
   <si>
-    <t>E → id</t>
-  </si>
-  <si>
     <t>idPM$</t>
   </si>
   <si>
     <t>match id</t>
   </si>
   <si>
-    <t>[id</t>
-  </si>
-  <si>
     <t>PM$</t>
   </si>
   <si>
     <t>..[num]++id,num]:[id id]$</t>
   </si>
   <si>
-    <t>P → ..E]</t>
-  </si>
-  <si>
     <t>..E]M$</t>
   </si>
   <si>
     <t>match ..</t>
   </si>
   <si>
-    <t>[id..</t>
-  </si>
-  <si>
     <t>E]M$</t>
   </si>
   <si>
@@ -625,18 +593,12 @@
     <t>num]++id,num]:[id id]$</t>
   </si>
   <si>
-    <t>E → num</t>
-  </si>
-  <si>
     <t>num]M$</t>
   </si>
   <si>
     <t>match num</t>
   </si>
   <si>
-    <t>[id..num</t>
-  </si>
-  <si>
     <t>]M$</t>
   </si>
   <si>
@@ -646,60 +608,39 @@
     <t>match ]</t>
   </si>
   <si>
-    <t>[id..num]</t>
-  </si>
-  <si>
     <t>M$</t>
   </si>
   <si>
     <t>++id,num]:[id id]$</t>
   </si>
   <si>
-    <t>M → ++L</t>
-  </si>
-  <si>
     <t>++L$</t>
   </si>
   <si>
     <t>match ++</t>
   </si>
   <si>
-    <t>[id..num]++</t>
-  </si>
-  <si>
     <t>id,num]:[id id]$</t>
   </si>
   <si>
-    <t>N → E:N</t>
-  </si>
-  <si>
     <t>E:NM$</t>
   </si>
   <si>
     <t>id:NM$</t>
   </si>
   <si>
-    <t>[id..num]++id</t>
-  </si>
-  <si>
     <t>:NM$</t>
   </si>
   <si>
     <t>,num]:[id id]$</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
     <t>num]:[id id]$</t>
   </si>
   <si>
     <t>num:NM$</t>
   </si>
   <si>
-    <t>[id..num]++id num</t>
-  </si>
-  <si>
     <t>]:[id id]$</t>
   </si>
   <si>
@@ -718,15 +659,6 @@
     <t>e12 (skip)</t>
   </si>
   <si>
-    <t>[id..num]++id num[</t>
-  </si>
-  <si>
-    <t>O → ]</t>
-  </si>
-  <si>
-    <t>[id..num]++id num[]</t>
-  </si>
-  <si>
     <t>:[id id]$</t>
   </si>
   <si>
@@ -742,49 +674,118 @@
     <t>++[id id]$</t>
   </si>
   <si>
-    <t>[id..num]++id num[]++</t>
-  </si>
-  <si>
-    <t>[id..num]++id num[]++[</t>
-  </si>
-  <si>
     <t>id id]$</t>
   </si>
   <si>
-    <t>[id..num]++id num[]++[id</t>
-  </si>
-  <si>
     <t>id]$</t>
   </si>
   <si>
-    <t>e4 (skip)</t>
-  </si>
-  <si>
     <t>]$</t>
   </si>
   <si>
     <t>e13 (insert ,)</t>
   </si>
   <si>
-    <t>,]$</t>
-  </si>
-  <si>
     <t>,LLM$</t>
   </si>
   <si>
     <t>match ,</t>
   </si>
   <si>
-    <t>[id..num]++id num[]++[id,</t>
-  </si>
-  <si>
     <t>LLM$</t>
   </si>
   <si>
-    <t>[id..num]++id num[]++[id,]</t>
-  </si>
-  <si>
     <t>OK</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">e13: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>echo "missing , here" insert ,</t>
+    </r>
+  </si>
+  <si>
+    <t>id PM$</t>
+  </si>
+  <si>
+    <t>[ id</t>
+  </si>
+  <si>
+    <t>[ id ..</t>
+  </si>
+  <si>
+    <t>[ id .. num</t>
+  </si>
+  <si>
+    <t>[ id .. num ]</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ id .. num ] ++ id : </t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id : num</t>
+  </si>
+  <si>
+    <t>pop ": inserted"</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id : num :</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id : num : [</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id : num : []</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id : num : [] ++</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id : num : [] ++ [</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id : num : [] ++ [ id</t>
+  </si>
+  <si>
+    <t>,id]$</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id : num : [] ++ [ id,</t>
+  </si>
+  <si>
+    <t>E,LLM$</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id : num : [] ++ [ id,id</t>
+  </si>
+  <si>
+    <t>id,LLM$</t>
+  </si>
+  <si>
+    <t>pop ", inserted"</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id : num : [] ++ [ id,id,</t>
+  </si>
+  <si>
+    <t>[ id .. num ] ++ id : num : [] ++ [ id,id,]</t>
   </si>
 </sst>
 </file>
@@ -813,7 +814,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,6 +836,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,6 +912,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1217,9 +1236,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2960920F-76B3-4447-A4CF-7FD9CDAA4B2A}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1257,31 +1277,31 @@
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1321,32 +1341,32 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1363,7 +1383,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>29</v>
@@ -1378,39 +1398,39 @@
         <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1427,7 +1447,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>34</v>
@@ -1442,39 +1462,39 @@
         <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>64</v>
+      <c r="J8" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1489,7 +1509,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1499,7 +1519,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1637,7 +1657,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1735,7 +1755,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1743,7 +1763,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1759,8 +1779,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634ADFA1-928A-439E-95CF-291C0023AEFB}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D49" sqref="A3:D49"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1768,56 +1791,56 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1825,13 +1848,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -1839,13 +1862,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
@@ -1853,13 +1876,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
@@ -1867,573 +1890,573 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>111</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>125</v>
+        <v>80</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>125</v>
+        <v>95</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>134</v>
+        <v>98</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>136</v>
+        <v>98</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>152</v>
@@ -2441,35 +2464,59 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="A50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="A51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="A52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
